--- a/KRW-WAVES.xlsx
+++ b/KRW-WAVES.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,21 +424,63 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2022-05-30T15:16:35+09:00</v>
+        <v>2022-06-02T09:44:53+09:00</v>
       </c>
       <c r="B2" t="str">
         <v>bid</v>
       </c>
       <c r="C2" t="str">
-        <v>6205.0</v>
+        <v>12130.0</v>
       </c>
       <c r="D2" t="str">
-        <v>29784.000</v>
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2022-06-02T09:44:55+09:00</v>
+      </c>
+      <c r="B3" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C3" t="str">
+        <v>12120.0</v>
+      </c>
+      <c r="D3" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2022-06-02T09:44:57+09:00</v>
+      </c>
+      <c r="B4" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C4" t="str">
+        <v>12130.0</v>
+      </c>
+      <c r="D4" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2022-06-02T09:45:00+09:00</v>
+      </c>
+      <c r="B5" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C5" t="str">
+        <v>12090.0</v>
+      </c>
+      <c r="D5" t="str">
+        <v>10000.000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>